--- a/data/trans_bre/MCS12_SP_R3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Estudios-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.4824894844660217</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4969896908570688</v>
+        <v>0.4969896908570689</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.928256601973315</v>
+        <v>1.684280646053846</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.23207633732316</v>
+        <v>6.407511192352855</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.352963238757752</v>
+        <v>8.63624743161256</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.796843437482638</v>
+        <v>8.719229573697231</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06915472665107178</v>
+        <v>0.05539567432456768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1901444441556082</v>
+        <v>0.1985435210863242</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2879995402926505</v>
+        <v>0.2988102342916756</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2945272863427734</v>
+        <v>0.2997345838691924</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.281862304808472</v>
+        <v>9.228774385082749</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.38139106327874</v>
+        <v>14.2901456024478</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.63251788474737</v>
+        <v>17.47236480029936</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.175991793314</v>
+        <v>17.28929543694078</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3752739657696156</v>
+        <v>0.3717038569535626</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5303941994453879</v>
+        <v>0.5223060638144007</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7248470338756171</v>
+        <v>0.7361629657409217</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7247967264429976</v>
+        <v>0.7369947058093179</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.514554994998075</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.452734163865006</v>
+        <v>6.452734163865004</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5729463105140171</v>
@@ -749,7 +749,7 @@
         <v>0.3212998222787574</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3543820110246565</v>
+        <v>0.3543820110246563</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.67980155682146</v>
+        <v>5.728040414474419</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.092610769946485</v>
+        <v>6.430491416295025</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.726366509153728</v>
+        <v>2.925678008724705</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.868832129703414</v>
+        <v>3.974431389952979</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3560743137191751</v>
+        <v>0.3587490755833292</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2842399078303279</v>
+        <v>0.291525056959336</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1494637749430691</v>
+        <v>0.1546778873036277</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2011863283358108</v>
+        <v>0.2003765205499348</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.28316054343567</v>
+        <v>11.13063941184987</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.82951600504629</v>
+        <v>12.55998092845129</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.997903318900598</v>
+        <v>8.014912672369956</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.826573987349493</v>
+        <v>8.808873801794997</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8470847425703381</v>
+        <v>0.8243315528212699</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6138051631435113</v>
+        <v>0.6451400113441514</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5072205712245766</v>
+        <v>0.493061512848142</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.533440456974198</v>
+        <v>0.518807897153688</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.414379080063885</v>
+        <v>1.283887330289669</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.325059797236258</v>
+        <v>2.579706606861996</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.02649993285830527</v>
+        <v>-0.5064182374044714</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.200484977532554</v>
+        <v>1.38948854211937</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07237310219425572</v>
+        <v>0.06976185950855771</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1442282002680091</v>
+        <v>0.1589432804352488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.00898927767687816</v>
+        <v>-0.03222751935017328</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.04942647426979827</v>
+        <v>0.0637149015791104</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.29560422740507</v>
+        <v>11.42214433154438</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.10958071432903</v>
+        <v>13.25905326495777</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.34182744828083</v>
+        <v>9.194782897063739</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.748654676448789</v>
+        <v>9.460105771327274</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8457270352204527</v>
+        <v>0.8458388677987033</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.218459803745546</v>
+        <v>1.276075700045014</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7163967879715349</v>
+        <v>0.6889045757512651</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5929548275051283</v>
+        <v>0.5877714690231889</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.050017222940678</v>
+        <v>5.724462077078582</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.293172192404587</v>
+        <v>8.432799573029085</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.908424723210636</v>
+        <v>5.945511160835905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.361819815537848</v>
+        <v>6.200035492469217</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3076922461266403</v>
+        <v>0.2957828573757993</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3545280460457126</v>
+        <v>0.3609039076571026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2991897473878209</v>
+        <v>0.2967858810567194</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3046296423497254</v>
+        <v>0.2963047601656976</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.992588226256119</v>
+        <v>9.916639773541922</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.68047122662199</v>
+        <v>12.76481345063446</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.864382687398669</v>
+        <v>9.797916858856329</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.17486022488086</v>
+        <v>10.08649935855869</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5685594910138259</v>
+        <v>0.5708221697932828</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6015573094014586</v>
+        <v>0.6006706090464805</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5572184627620504</v>
+        <v>0.5471211736072447</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5458109712102347</v>
+        <v>0.5432742377752287</v>
       </c>
     </row>
     <row r="16">
